--- a/Data/Processing/2024-02-02/NAVINFLUOR.xlsx
+++ b/Data/Processing/2024-02-02/NAVINFLUOR.xlsx
@@ -2866,7 +2866,7 @@
         <v>4434.56</v>
       </c>
       <c r="C47">
-        <v>4529.33</v>
+        <v>4529.34</v>
       </c>
       <c r="D47">
         <v>4400.29</v>
